--- a/master_seating_chart-2.xlsx
+++ b/master_seating_chart-2.xlsx
@@ -1425,6 +1425,953 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Yeshwantrao Chavan College of Engineering</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Department of Computer Technology</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B5" t="str">
+        <v>06.11.2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Room No.</v>
+      </c>
+      <c r="B6" t="str">
+        <v>EL-206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Branch-Semester Groups:</v>
+      </c>
+      <c r="B8" t="str">
+        <v>CSE(IOT)-3 | CSE(IOT)-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="B10" t="str">
+        <v>From</v>
+      </c>
+      <c r="C10" t="str">
+        <v>To</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>CAO</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>OS</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Column 1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Column 2</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Column 3</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Column 4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>1. 1 | 2. 1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>23. 12 | 24. 12</v>
+      </c>
+      <c r="C16" t="str">
+        <v>45. 23 | 46. 23</v>
+      </c>
+      <c r="D16" t="str">
+        <v>67. 34 | 68. 34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3. 2 | 4. 2</v>
+      </c>
+      <c r="B17" t="str">
+        <v>25. 13 | 26. 13</v>
+      </c>
+      <c r="C17" t="str">
+        <v>47. 24 | 48. 24</v>
+      </c>
+      <c r="D17" t="str">
+        <v>69. 35 | 70. 35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5. 3 | 6. 3</v>
+      </c>
+      <c r="B18" t="str">
+        <v>27. 14 | 28. 14</v>
+      </c>
+      <c r="C18" t="str">
+        <v>49. 25 | 50. 25</v>
+      </c>
+      <c r="D18" t="str">
+        <v>71. 36 | 72. 36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>7. 4 | 8. 4</v>
+      </c>
+      <c r="B19" t="str">
+        <v>29. 15 | 30. 15</v>
+      </c>
+      <c r="C19" t="str">
+        <v>51. 26 | 52. 26</v>
+      </c>
+      <c r="D19" t="str">
+        <v>73. 37 | 74. 37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>9. 5 | 10. 5</v>
+      </c>
+      <c r="B20" t="str">
+        <v>31. 16 | 32. 16</v>
+      </c>
+      <c r="C20" t="str">
+        <v>53. 27 | 54. 27</v>
+      </c>
+      <c r="D20" t="str">
+        <v>75. 38 | 76. 38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>11. 6 | 12. 6</v>
+      </c>
+      <c r="B21" t="str">
+        <v>33. 17 | 34. 17</v>
+      </c>
+      <c r="C21" t="str">
+        <v>55. 28 | 56. 28</v>
+      </c>
+      <c r="D21" t="str">
+        <v>77. 39 | 78. 39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>13. 7 | 14. 7</v>
+      </c>
+      <c r="B22" t="str">
+        <v>35. 18 | 36. 18</v>
+      </c>
+      <c r="C22" t="str">
+        <v>57. 29 | 58. 29</v>
+      </c>
+      <c r="D22" t="str">
+        <v>79. 40 | 80. 40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>15. 8 | 16. 8</v>
+      </c>
+      <c r="B23" t="str">
+        <v>37. 19 | 38. 19</v>
+      </c>
+      <c r="C23" t="str">
+        <v>59. 30 | 60. 30</v>
+      </c>
+      <c r="D23" t="str">
+        <v>81. 41 | 82. 41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>17. 9 | 18. 9</v>
+      </c>
+      <c r="B24" t="str">
+        <v>39. 20 | 40. 20</v>
+      </c>
+      <c r="C24" t="str">
+        <v>61. 31 | 62. 31</v>
+      </c>
+      <c r="D24" t="str">
+        <v>83. 42 | 84. 42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>19. 10 | 20. 10</v>
+      </c>
+      <c r="B25" t="str">
+        <v>41. 21 | 42. 21</v>
+      </c>
+      <c r="C25" t="str">
+        <v>63. 32 | 64. 32</v>
+      </c>
+      <c r="D25" t="str">
+        <v>85. 43 | 86. 43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>21. 11 | 22. 11</v>
+      </c>
+      <c r="B26" t="str">
+        <v>43. 22 | 44. 22</v>
+      </c>
+      <c r="C26" t="str">
+        <v>65. 33 | 66. 33</v>
+      </c>
+      <c r="D26" t="str">
+        <v>87. 44 | 88. 44</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D26"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Yeshwantrao Chavan College of Engineering</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Department of Computer Technology</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B5" t="str">
+        <v>06.11.2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Room No.</v>
+      </c>
+      <c r="B6" t="str">
+        <v>EL-306</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Branch-Semester Groups:</v>
+      </c>
+      <c r="B8" t="str">
+        <v>CT-3 | CT-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="B10" t="str">
+        <v>From</v>
+      </c>
+      <c r="C10" t="str">
+        <v>To</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>DAA</v>
+      </c>
+      <c r="B11" t="str">
+        <v>41</v>
+      </c>
+      <c r="C11" t="str">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>DSA</v>
+      </c>
+      <c r="B12" t="str">
+        <v>41</v>
+      </c>
+      <c r="C12" t="str">
+        <v>87</v>
+      </c>
+      <c r="D12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Column 1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Column 2</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Column 3</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Column 4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>1. 41 | 2. 41</v>
+      </c>
+      <c r="B16" t="str">
+        <v>25. 53 | 26. 53</v>
+      </c>
+      <c r="C16" t="str">
+        <v>49. 65 | 50. 65</v>
+      </c>
+      <c r="D16" t="str">
+        <v>73. 77 | 74. 77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3. 42 | 4. 42</v>
+      </c>
+      <c r="B17" t="str">
+        <v>27. 54 | 28. 54</v>
+      </c>
+      <c r="C17" t="str">
+        <v>51. 66 | 52. 66</v>
+      </c>
+      <c r="D17" t="str">
+        <v>75. 78 | 76. 78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5. 43 | 6. 43</v>
+      </c>
+      <c r="B18" t="str">
+        <v>29. 55 | 30. 55</v>
+      </c>
+      <c r="C18" t="str">
+        <v>53. 67 | 54. 67</v>
+      </c>
+      <c r="D18" t="str">
+        <v>77. 79 | 78. 79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>7. 44 | 8. 44</v>
+      </c>
+      <c r="B19" t="str">
+        <v>31. 56 | 32. 56</v>
+      </c>
+      <c r="C19" t="str">
+        <v>55. 68 | 56. 68</v>
+      </c>
+      <c r="D19" t="str">
+        <v>79. 80 | 80. 80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>9. 45 | 10. 45</v>
+      </c>
+      <c r="B20" t="str">
+        <v>33. 57 | 34. 57</v>
+      </c>
+      <c r="C20" t="str">
+        <v>57. 69 | 58. 69</v>
+      </c>
+      <c r="D20" t="str">
+        <v>81. 81 | 82. 81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>11. 46 | 12. 46</v>
+      </c>
+      <c r="B21" t="str">
+        <v>35. 58 | 36. 58</v>
+      </c>
+      <c r="C21" t="str">
+        <v>59. 70 | 60. 70</v>
+      </c>
+      <c r="D21" t="str">
+        <v>83. 82 | 84. 82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>13. 47 | 14. 47</v>
+      </c>
+      <c r="B22" t="str">
+        <v>37. 59 | 38. 59</v>
+      </c>
+      <c r="C22" t="str">
+        <v>61. 71 | 62. 71</v>
+      </c>
+      <c r="D22" t="str">
+        <v>85. 83 | 86. 83</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>15. 48 | 16. 48</v>
+      </c>
+      <c r="B23" t="str">
+        <v>39. 60 | 40. 60</v>
+      </c>
+      <c r="C23" t="str">
+        <v>63. 72 | 64. 72</v>
+      </c>
+      <c r="D23" t="str">
+        <v>87. 84 | 88. 84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>17. 49 | 18. 49</v>
+      </c>
+      <c r="B24" t="str">
+        <v>41. 61 | 42. 61</v>
+      </c>
+      <c r="C24" t="str">
+        <v>65. 73 | 66. 73</v>
+      </c>
+      <c r="D24" t="str">
+        <v>89. 85 | 90. 85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>19. 50 | 20. 50</v>
+      </c>
+      <c r="B25" t="str">
+        <v>43. 62 | 44. 62</v>
+      </c>
+      <c r="C25" t="str">
+        <v>67. 74 | 68. 74</v>
+      </c>
+      <c r="D25" t="str">
+        <v>91. 86 | 92. 86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>21. 51 | 22. 51</v>
+      </c>
+      <c r="B26" t="str">
+        <v>45. 63 | 46. 63</v>
+      </c>
+      <c r="C26" t="str">
+        <v>69. 75 | 70. 75</v>
+      </c>
+      <c r="D26" t="str">
+        <v>93. 87 | 94. 87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>23. 52 | 24. 52</v>
+      </c>
+      <c r="B27" t="str">
+        <v>47. 64 | 48. 64</v>
+      </c>
+      <c r="C27" t="str">
+        <v>71. 76 | 72. 76</v>
+      </c>
+      <c r="D27" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Yeshwantrao Chavan College of Engineering</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Department of Computer Technology</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B5" t="str">
+        <v>06.11.2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Room No.</v>
+      </c>
+      <c r="B6" t="str">
+        <v>EL-316</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Branch-Semester Groups:</v>
+      </c>
+      <c r="B8" t="str">
+        <v>CSE(IOT)-3 | CSE(IOT)-5 | CT-3 | CT-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="B10" t="str">
+        <v>From</v>
+      </c>
+      <c r="C10" t="str">
+        <v>To</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>CAO</v>
+      </c>
+      <c r="B11" t="str">
+        <v>45</v>
+      </c>
+      <c r="C11" t="str">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>DAA</v>
+      </c>
+      <c r="B12" t="str">
+        <v>88</v>
+      </c>
+      <c r="C12" t="str">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>DSA</v>
+      </c>
+      <c r="B13" t="str">
+        <v>88</v>
+      </c>
+      <c r="C13" t="str">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>OS</v>
+      </c>
+      <c r="B14" t="str">
+        <v>45</v>
+      </c>
+      <c r="C14" t="str">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Column 1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Column 2</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Column 3</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Column 4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>1. 45 | 2. 45</v>
+      </c>
+      <c r="B18" t="str">
+        <v>25. 57 | 26. 57</v>
+      </c>
+      <c r="C18" t="str">
+        <v>49. 69 | 50. 69</v>
+      </c>
+      <c r="D18" t="str">
+        <v>67. 81 | 83. 94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3. 46 | 4. 46</v>
+      </c>
+      <c r="B19" t="str">
+        <v>27. 58 | 28. 58</v>
+      </c>
+      <c r="C19" t="str">
+        <v>51. 70 | 52. 70</v>
+      </c>
+      <c r="D19" t="str">
+        <v>68. 82 | 84. 95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>5. 47 | 6. 47</v>
+      </c>
+      <c r="B20" t="str">
+        <v>29. 59 | 30. 59</v>
+      </c>
+      <c r="C20" t="str">
+        <v>53. 71 | 54. 71</v>
+      </c>
+      <c r="D20" t="str">
+        <v>69. 83 | 85. 96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>7. 48 | 8. 48</v>
+      </c>
+      <c r="B21" t="str">
+        <v>31. 60 | 32. 60</v>
+      </c>
+      <c r="C21" t="str">
+        <v>55. 72 | 56. 72</v>
+      </c>
+      <c r="D21" t="str">
+        <v>70. 84 | 86. 97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>9. 49 | 10. 49</v>
+      </c>
+      <c r="B22" t="str">
+        <v>33. 61 | 34. 61</v>
+      </c>
+      <c r="C22" t="str">
+        <v>57. 73 | 58. 73</v>
+      </c>
+      <c r="D22" t="str">
+        <v>71. 85 | 87. 98</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>11. 50 | 12. 50</v>
+      </c>
+      <c r="B23" t="str">
+        <v>35. 62 | 36. 62</v>
+      </c>
+      <c r="C23" t="str">
+        <v>59. 74 | 60. 74</v>
+      </c>
+      <c r="D23" t="str">
+        <v>72. 86 | 88. 99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>13. 51 | 14. 51</v>
+      </c>
+      <c r="B24" t="str">
+        <v>37. 63 | 38. 63</v>
+      </c>
+      <c r="C24" t="str">
+        <v>61. 75 | 77. 88</v>
+      </c>
+      <c r="D24" t="str">
+        <v>73. 87 | 89. 100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>15. 52 | 16. 52</v>
+      </c>
+      <c r="B25" t="str">
+        <v>39. 64 | 40. 64</v>
+      </c>
+      <c r="C25" t="str">
+        <v>62. 76 | 78. 89</v>
+      </c>
+      <c r="D25" t="str">
+        <v>74. 88 | 90. 101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>17. 53 | 18. 53</v>
+      </c>
+      <c r="B26" t="str">
+        <v>41. 65 | 42. 65</v>
+      </c>
+      <c r="C26" t="str">
+        <v>63. 77 | 79. 90</v>
+      </c>
+      <c r="D26" t="str">
+        <v>75. 89 | 91. 102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>19. 54 | 20. 54</v>
+      </c>
+      <c r="B27" t="str">
+        <v>43. 66 | 44. 66</v>
+      </c>
+      <c r="C27" t="str">
+        <v>64. 78 | 80. 91</v>
+      </c>
+      <c r="D27" t="str">
+        <v>76. 90 | 92. 103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>21. 55 | 22. 55</v>
+      </c>
+      <c r="B28" t="str">
+        <v>45. 67 | 46. 67</v>
+      </c>
+      <c r="C28" t="str">
+        <v>65. 79 | 81. 92</v>
+      </c>
+      <c r="D28" t="str">
+        <v>93. 104 | 94. 88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>23. 56 | 24. 56</v>
+      </c>
+      <c r="B29" t="str">
+        <v>47. 68 | 48. 68</v>
+      </c>
+      <c r="C29" t="str">
+        <v>66. 80 | 82. 93</v>
+      </c>
+      <c r="D29" t="str">
+        <v>95. 105 | 96. 89</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D29"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1463,7 +2410,7 @@
         <v>Room No.</v>
       </c>
       <c r="B6" t="str">
-        <v>EL-206</v>
+        <v>EL-203</v>
       </c>
     </row>
     <row r="7">
@@ -1473,231 +2420,216 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Subject (Branch-Sem)</v>
+        <v>Branch-Semester Groups:</v>
       </c>
       <c r="B8" t="str">
-        <v>From</v>
-      </c>
-      <c r="C8" t="str">
-        <v>To</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Total</v>
+        <v>AIDS-3 | AIDS-5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>CAO (CSE(IOT) - 3)</v>
-      </c>
-      <c r="B9" t="str">
-        <v>CSE(IOT)-3-1</v>
-      </c>
-      <c r="C9" t="str">
-        <v>CSE(IOT)-3-44</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>OS (CSE(IOT) - 5)</v>
+        <v>Subject</v>
       </c>
       <c r="B10" t="str">
-        <v>CSE(IOT)-5-1</v>
+        <v>From</v>
       </c>
       <c r="C10" t="str">
-        <v>CSE(IOT)-5-44</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
+        <v>To</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Total</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Total</v>
+        <v>AI</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>ML</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Column 1</v>
+        <v>Total</v>
       </c>
       <c r="B13" t="str">
-        <v>Column 2</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>Column 3</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Column 4</v>
+        <v/>
+      </c>
+      <c r="D13">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>1. CSE(IOT)-3-1 | 2. CSE(IOT)-5-1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>23. CSE(IOT)-3-12 | 24. CSE(IOT)-5-12</v>
-      </c>
-      <c r="C14" t="str">
-        <v>45. CSE(IOT)-3-23 | 46. CSE(IOT)-5-23</v>
-      </c>
-      <c r="D14" t="str">
-        <v>67. CSE(IOT)-3-34 | 68. CSE(IOT)-5-34</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>3. CSE(IOT)-3-2 | 4. CSE(IOT)-5-2</v>
+        <v>Column 1</v>
       </c>
       <c r="B15" t="str">
-        <v>25. CSE(IOT)-3-13 | 26. CSE(IOT)-5-13</v>
+        <v>Column 2</v>
       </c>
       <c r="C15" t="str">
-        <v>47. CSE(IOT)-3-24 | 48. CSE(IOT)-5-24</v>
+        <v>Column 3</v>
       </c>
       <c r="D15" t="str">
-        <v>69. CSE(IOT)-3-35 | 70. CSE(IOT)-5-35</v>
+        <v>Column 4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>5. CSE(IOT)-3-3 | 6. CSE(IOT)-5-3</v>
+        <v>1. 1 | 2. 1</v>
       </c>
       <c r="B16" t="str">
-        <v>27. CSE(IOT)-3-14 | 28. CSE(IOT)-5-14</v>
+        <v>19. 10 | 20. 10</v>
       </c>
       <c r="C16" t="str">
-        <v>49. CSE(IOT)-3-25 | 50. CSE(IOT)-5-25</v>
+        <v>37. 19 | 38. 19</v>
       </c>
       <c r="D16" t="str">
-        <v>71. CSE(IOT)-3-36 | 72. CSE(IOT)-5-36</v>
+        <v>53. 27 | 54. 27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>7. CSE(IOT)-3-4 | 8. CSE(IOT)-5-4</v>
+        <v>3. 2 | 4. 2</v>
       </c>
       <c r="B17" t="str">
-        <v>29. CSE(IOT)-3-15 | 30. CSE(IOT)-5-15</v>
+        <v>21. 11 | 22. 11</v>
       </c>
       <c r="C17" t="str">
-        <v>51. CSE(IOT)-3-26 | 52. CSE(IOT)-5-26</v>
+        <v>39. 20 | 40. 20</v>
       </c>
       <c r="D17" t="str">
-        <v>73. CSE(IOT)-3-37 | 74. CSE(IOT)-5-37</v>
+        <v>55. 28 | 56. 28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>9. CSE(IOT)-3-5 | 10. CSE(IOT)-5-5</v>
+        <v>5. 3 | 6. 3</v>
       </c>
       <c r="B18" t="str">
-        <v>31. CSE(IOT)-3-16 | 32. CSE(IOT)-5-16</v>
+        <v>23. 12 | 24. 12</v>
       </c>
       <c r="C18" t="str">
-        <v>53. CSE(IOT)-3-27 | 54. CSE(IOT)-5-27</v>
+        <v>41. 21 | 42. 21</v>
       </c>
       <c r="D18" t="str">
-        <v>75. CSE(IOT)-3-38 | 76. CSE(IOT)-5-38</v>
+        <v>57. 29 | 58. 29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>11. CSE(IOT)-3-6 | 12. CSE(IOT)-5-6</v>
+        <v>7. 4 | 8. 4</v>
       </c>
       <c r="B19" t="str">
-        <v>33. CSE(IOT)-3-17 | 34. CSE(IOT)-5-17</v>
+        <v>25. 13 | 26. 13</v>
       </c>
       <c r="C19" t="str">
-        <v>55. CSE(IOT)-3-28 | 56. CSE(IOT)-5-28</v>
+        <v>43. 22 | 44. 22</v>
       </c>
       <c r="D19" t="str">
-        <v>77. CSE(IOT)-3-39 | 78. CSE(IOT)-5-39</v>
+        <v>59. 30 | 60. 30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>13. CSE(IOT)-3-7 | 14. CSE(IOT)-5-7</v>
+        <v>9. 5 | 10. 5</v>
       </c>
       <c r="B20" t="str">
-        <v>35. CSE(IOT)-3-18 | 36. CSE(IOT)-5-18</v>
+        <v>27. 14 | 28. 14</v>
       </c>
       <c r="C20" t="str">
-        <v>57. CSE(IOT)-3-29 | 58. CSE(IOT)-5-29</v>
+        <v>45. 23 | 46. 23</v>
       </c>
       <c r="D20" t="str">
-        <v>79. CSE(IOT)-3-40 | 80. CSE(IOT)-5-40</v>
+        <v>61. 31 | 62. 31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>15. CSE(IOT)-3-8 | 16. CSE(IOT)-5-8</v>
+        <v>11. 6 | 12. 6</v>
       </c>
       <c r="B21" t="str">
-        <v>37. CSE(IOT)-3-19 | 38. CSE(IOT)-5-19</v>
+        <v>29. 15 | 30. 15</v>
       </c>
       <c r="C21" t="str">
-        <v>59. CSE(IOT)-3-30 | 60. CSE(IOT)-5-30</v>
+        <v>47. 24 | 48. 24</v>
       </c>
       <c r="D21" t="str">
-        <v>81. CSE(IOT)-3-41 | 82. CSE(IOT)-5-41</v>
+        <v>63. 32 | 64. 32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>17. CSE(IOT)-3-9 | 18. CSE(IOT)-5-9</v>
+        <v>13. 7 | 14. 7</v>
       </c>
       <c r="B22" t="str">
-        <v>39. CSE(IOT)-3-20 | 40. CSE(IOT)-5-20</v>
+        <v>31. 16 | 32. 16</v>
       </c>
       <c r="C22" t="str">
-        <v>61. CSE(IOT)-3-31 | 62. CSE(IOT)-5-31</v>
+        <v>49. 25 | 50. 25</v>
       </c>
       <c r="D22" t="str">
-        <v>83. CSE(IOT)-3-42 | 84. CSE(IOT)-5-42</v>
+        <v>65. 33 | 66. 33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>19. CSE(IOT)-3-10 | 20. CSE(IOT)-5-10</v>
+        <v>15. 8 | 16. 8</v>
       </c>
       <c r="B23" t="str">
-        <v>41. CSE(IOT)-3-21 | 42. CSE(IOT)-5-21</v>
+        <v>33. 17 | 34. 17</v>
       </c>
       <c r="C23" t="str">
-        <v>63. CSE(IOT)-3-32 | 64. CSE(IOT)-5-32</v>
+        <v>51. 26 | 52. 26</v>
       </c>
       <c r="D23" t="str">
-        <v>85. CSE(IOT)-3-43 | 86. CSE(IOT)-5-43</v>
+        <v>67. 34 | 68. 34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>21. CSE(IOT)-3-11 | 22. CSE(IOT)-5-11</v>
+        <v>17. 9 | 18. 9</v>
       </c>
       <c r="B24" t="str">
-        <v>43. CSE(IOT)-3-22 | 44. CSE(IOT)-5-22</v>
+        <v>35. 18 | 36. 18</v>
       </c>
       <c r="C24" t="str">
-        <v>65. CSE(IOT)-3-33 | 66. CSE(IOT)-5-33</v>
+        <v xml:space="preserve"> | </v>
       </c>
       <c r="D24" t="str">
-        <v>87. CSE(IOT)-3-44 | 88. CSE(IOT)-5-44</v>
+        <v xml:space="preserve"> | </v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +2639,634 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Yeshwantrao Chavan College of Engineering</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Department of Computer Technology</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B5" t="str">
+        <v>06.11.2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Room No.</v>
+      </c>
+      <c r="B6" t="str">
+        <v>EL-205</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Branch-Semester Groups:</v>
+      </c>
+      <c r="B8" t="str">
+        <v>AIDS-3 | AIDS-5 | CT-3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="B10" t="str">
+        <v>From</v>
+      </c>
+      <c r="C10" t="str">
+        <v>To</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B11" t="str">
+        <v>78</v>
+      </c>
+      <c r="C11" t="str">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>DAA</v>
+      </c>
+      <c r="B12" t="str">
+        <v>106</v>
+      </c>
+      <c r="C12" t="str">
+        <v>112</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>ML</v>
+      </c>
+      <c r="B13" t="str">
+        <v>78</v>
+      </c>
+      <c r="C13" t="str">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Column 1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Column 2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Column 3</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Column 4</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Column 5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>1. 78 | 2. 78</v>
+      </c>
+      <c r="B17" t="str">
+        <v>17. 88 | 36. 110</v>
+      </c>
+      <c r="C17" t="str">
+        <v xml:space="preserve">27. 98 | </v>
+      </c>
+      <c r="D17" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E17" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>3. 79 | 4. 79</v>
+      </c>
+      <c r="B18" t="str">
+        <v>18. 89 | 37. 111</v>
+      </c>
+      <c r="C18" t="str">
+        <v xml:space="preserve">28. 99 | </v>
+      </c>
+      <c r="D18" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E18" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>5. 80 | 6. 80</v>
+      </c>
+      <c r="B19" t="str">
+        <v>19. 90 | 38. 112</v>
+      </c>
+      <c r="C19" t="str">
+        <v xml:space="preserve">29. 100 | </v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E19" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>7. 81 | 8. 81</v>
+      </c>
+      <c r="B20" t="str">
+        <v xml:space="preserve">20. 91 | </v>
+      </c>
+      <c r="C20" t="str">
+        <v xml:space="preserve">30. 101 | </v>
+      </c>
+      <c r="D20" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E20" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>9. 82 | 10. 82</v>
+      </c>
+      <c r="B21" t="str">
+        <v xml:space="preserve">21. 92 | </v>
+      </c>
+      <c r="C21" t="str">
+        <v xml:space="preserve">31. 102 | </v>
+      </c>
+      <c r="D21" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E21" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>11. 83 | 12. 83</v>
+      </c>
+      <c r="B22" t="str">
+        <v xml:space="preserve">22. 93 | </v>
+      </c>
+      <c r="C22" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="D22" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E22" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>13. 84 | 32. 106</v>
+      </c>
+      <c r="B23" t="str">
+        <v xml:space="preserve">23. 94 | </v>
+      </c>
+      <c r="C23" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="D23" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>14. 85 | 33. 107</v>
+      </c>
+      <c r="B24" t="str">
+        <v xml:space="preserve">24. 95 | </v>
+      </c>
+      <c r="C24" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="D24" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E24" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>15. 86 | 34. 108</v>
+      </c>
+      <c r="B25" t="str">
+        <v xml:space="preserve">25. 96 | </v>
+      </c>
+      <c r="C25" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="D25" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E25" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>16. 87 | 35. 109</v>
+      </c>
+      <c r="B26" t="str">
+        <v xml:space="preserve">26. 97 | </v>
+      </c>
+      <c r="C26" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="D26" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+      <c r="E26" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Yeshwantrao Chavan College of Engineering</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Department of Computer Technology</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Date</v>
+      </c>
+      <c r="B5" t="str">
+        <v>06.11.2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Room No.</v>
+      </c>
+      <c r="B6" t="str">
+        <v>EL-308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Branch-Semester Groups:</v>
+      </c>
+      <c r="B8" t="str">
+        <v>AIDS-3 | AIDS-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="B10" t="str">
+        <v>From</v>
+      </c>
+      <c r="C10" t="str">
+        <v>To</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B11" t="str">
+        <v>35</v>
+      </c>
+      <c r="C11" t="str">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ML</v>
+      </c>
+      <c r="B12" t="str">
+        <v>35</v>
+      </c>
+      <c r="C12" t="str">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Column 1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Column 2</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Column 3</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Column 4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>1. 35 | 2. 35</v>
+      </c>
+      <c r="B16" t="str">
+        <v>23. 46 | 24. 46</v>
+      </c>
+      <c r="C16" t="str">
+        <v>45. 57 | 46. 57</v>
+      </c>
+      <c r="D16" t="str">
+        <v>67. 68 | 68. 68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3. 36 | 4. 36</v>
+      </c>
+      <c r="B17" t="str">
+        <v>25. 47 | 26. 47</v>
+      </c>
+      <c r="C17" t="str">
+        <v>47. 58 | 48. 58</v>
+      </c>
+      <c r="D17" t="str">
+        <v>69. 69 | 70. 69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5. 37 | 6. 37</v>
+      </c>
+      <c r="B18" t="str">
+        <v>27. 48 | 28. 48</v>
+      </c>
+      <c r="C18" t="str">
+        <v>49. 59 | 50. 59</v>
+      </c>
+      <c r="D18" t="str">
+        <v>71. 70 | 72. 70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>7. 38 | 8. 38</v>
+      </c>
+      <c r="B19" t="str">
+        <v>29. 49 | 30. 49</v>
+      </c>
+      <c r="C19" t="str">
+        <v>51. 60 | 52. 60</v>
+      </c>
+      <c r="D19" t="str">
+        <v>73. 71 | 74. 71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>9. 39 | 10. 39</v>
+      </c>
+      <c r="B20" t="str">
+        <v>31. 50 | 32. 50</v>
+      </c>
+      <c r="C20" t="str">
+        <v>53. 61 | 54. 61</v>
+      </c>
+      <c r="D20" t="str">
+        <v>75. 72 | 76. 72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>11. 40 | 12. 40</v>
+      </c>
+      <c r="B21" t="str">
+        <v>33. 51 | 34. 51</v>
+      </c>
+      <c r="C21" t="str">
+        <v>55. 62 | 56. 62</v>
+      </c>
+      <c r="D21" t="str">
+        <v>77. 73 | 78. 73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>13. 41 | 14. 41</v>
+      </c>
+      <c r="B22" t="str">
+        <v>35. 52 | 36. 52</v>
+      </c>
+      <c r="C22" t="str">
+        <v>57. 63 | 58. 63</v>
+      </c>
+      <c r="D22" t="str">
+        <v>79. 74 | 80. 74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>15. 42 | 16. 42</v>
+      </c>
+      <c r="B23" t="str">
+        <v>37. 53 | 38. 53</v>
+      </c>
+      <c r="C23" t="str">
+        <v>59. 64 | 60. 64</v>
+      </c>
+      <c r="D23" t="str">
+        <v>81. 75 | 82. 75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>17. 43 | 18. 43</v>
+      </c>
+      <c r="B24" t="str">
+        <v>39. 54 | 40. 54</v>
+      </c>
+      <c r="C24" t="str">
+        <v>61. 65 | 62. 65</v>
+      </c>
+      <c r="D24" t="str">
+        <v>83. 76 | 84. 76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>19. 44 | 20. 44</v>
+      </c>
+      <c r="B25" t="str">
+        <v>41. 55 | 42. 55</v>
+      </c>
+      <c r="C25" t="str">
+        <v>63. 66 | 64. 66</v>
+      </c>
+      <c r="D25" t="str">
+        <v>85. 77 | 86. 77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>21. 45 | 22. 45</v>
+      </c>
+      <c r="B26" t="str">
+        <v>43. 56 | 44. 56</v>
+      </c>
+      <c r="C26" t="str">
+        <v>65. 67 | 66. 67</v>
+      </c>
+      <c r="D26" t="str">
+        <v xml:space="preserve"> | </v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D26"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -1747,7 +3306,7 @@
         <v>Room No.</v>
       </c>
       <c r="B6" t="str">
-        <v>EL-306</v>
+        <v>EL-202</v>
       </c>
     </row>
     <row r="7">
@@ -1757,245 +3316,230 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Subject (Branch-Sem)</v>
+        <v>Branch-Semester Groups:</v>
       </c>
       <c r="B8" t="str">
-        <v>From</v>
-      </c>
-      <c r="C8" t="str">
-        <v>To</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Total</v>
+        <v>CT-3 | CT-5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>DAA (CT - 3)</v>
-      </c>
-      <c r="B9" t="str">
-        <v>CT-3-41</v>
-      </c>
-      <c r="C9" t="str">
-        <v>CT-3-87</v>
-      </c>
-      <c r="D9">
-        <v>47</v>
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>DSA (CT - 5)</v>
+        <v>Subject</v>
       </c>
       <c r="B10" t="str">
-        <v>CT-5-41</v>
+        <v>From</v>
       </c>
       <c r="C10" t="str">
-        <v>CT-5-87</v>
-      </c>
-      <c r="D10">
-        <v>47</v>
+        <v>To</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Total</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Total</v>
+        <v>DAA</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>DSA</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Column 1</v>
+        <v>Total</v>
       </c>
       <c r="B13" t="str">
-        <v>Column 2</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>Column 3</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Column 4</v>
+        <v/>
+      </c>
+      <c r="D13">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>1. CT-3-41 | 2. CT-5-41</v>
-      </c>
-      <c r="B14" t="str">
-        <v>25. CT-3-53 | 26. CT-5-53</v>
-      </c>
-      <c r="C14" t="str">
-        <v>49. CT-3-65 | 50. CT-5-65</v>
-      </c>
-      <c r="D14" t="str">
-        <v>73. CT-3-77 | 74. CT-5-77</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>3. CT-3-42 | 4. CT-5-42</v>
+        <v>Column 1</v>
       </c>
       <c r="B15" t="str">
-        <v>27. CT-3-54 | 28. CT-5-54</v>
+        <v>Column 2</v>
       </c>
       <c r="C15" t="str">
-        <v>51. CT-3-66 | 52. CT-5-66</v>
+        <v>Column 3</v>
       </c>
       <c r="D15" t="str">
-        <v>75. CT-3-78 | 76. CT-5-78</v>
+        <v>Column 4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>5. CT-3-43 | 6. CT-5-43</v>
+        <v>1. 1 | 2. 1</v>
       </c>
       <c r="B16" t="str">
-        <v>29. CT-3-55 | 30. CT-5-55</v>
+        <v>21. 11 | 22. 11</v>
       </c>
       <c r="C16" t="str">
-        <v>53. CT-3-67 | 54. CT-5-67</v>
+        <v>41. 21 | 42. 21</v>
       </c>
       <c r="D16" t="str">
-        <v>77. CT-3-79 | 78. CT-5-79</v>
+        <v>61. 31 | 62. 31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>7. CT-3-44 | 8. CT-5-44</v>
+        <v>3. 2 | 4. 2</v>
       </c>
       <c r="B17" t="str">
-        <v>31. CT-3-56 | 32. CT-5-56</v>
+        <v>23. 12 | 24. 12</v>
       </c>
       <c r="C17" t="str">
-        <v>55. CT-3-68 | 56. CT-5-68</v>
+        <v>43. 22 | 44. 22</v>
       </c>
       <c r="D17" t="str">
-        <v>79. CT-3-80 | 80. CT-5-80</v>
+        <v>63. 32 | 64. 32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>9. CT-3-45 | 10. CT-5-45</v>
+        <v>5. 3 | 6. 3</v>
       </c>
       <c r="B18" t="str">
-        <v>33. CT-3-57 | 34. CT-5-57</v>
+        <v>25. 13 | 26. 13</v>
       </c>
       <c r="C18" t="str">
-        <v>57. CT-3-69 | 58. CT-5-69</v>
+        <v>45. 23 | 46. 23</v>
       </c>
       <c r="D18" t="str">
-        <v>81. CT-3-81 | 82. CT-5-81</v>
+        <v>65. 33 | 66. 33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>11. CT-3-46 | 12. CT-5-46</v>
+        <v>7. 4 | 8. 4</v>
       </c>
       <c r="B19" t="str">
-        <v>35. CT-3-58 | 36. CT-5-58</v>
+        <v>27. 14 | 28. 14</v>
       </c>
       <c r="C19" t="str">
-        <v>59. CT-3-70 | 60. CT-5-70</v>
+        <v>47. 24 | 48. 24</v>
       </c>
       <c r="D19" t="str">
-        <v>83. CT-3-82 | 84. CT-5-82</v>
+        <v>67. 34 | 68. 34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>13. CT-3-47 | 14. CT-5-47</v>
+        <v>9. 5 | 10. 5</v>
       </c>
       <c r="B20" t="str">
-        <v>37. CT-3-59 | 38. CT-5-59</v>
+        <v>29. 15 | 30. 15</v>
       </c>
       <c r="C20" t="str">
-        <v>61. CT-3-71 | 62. CT-5-71</v>
+        <v>49. 25 | 50. 25</v>
       </c>
       <c r="D20" t="str">
-        <v>85. CT-3-83 | 86. CT-5-83</v>
+        <v>69. 35 | 70. 35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>15. CT-3-48 | 16. CT-5-48</v>
+        <v>11. 6 | 12. 6</v>
       </c>
       <c r="B21" t="str">
-        <v>39. CT-3-60 | 40. CT-5-60</v>
+        <v>31. 16 | 32. 16</v>
       </c>
       <c r="C21" t="str">
-        <v>63. CT-3-72 | 64. CT-5-72</v>
+        <v>51. 26 | 52. 26</v>
       </c>
       <c r="D21" t="str">
-        <v>87. CT-3-84 | 88. CT-5-84</v>
+        <v>71. 36 | 72. 36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>17. CT-3-49 | 18. CT-5-49</v>
+        <v>13. 7 | 14. 7</v>
       </c>
       <c r="B22" t="str">
-        <v>41. CT-3-61 | 42. CT-5-61</v>
+        <v>33. 17 | 34. 17</v>
       </c>
       <c r="C22" t="str">
-        <v>65. CT-3-73 | 66. CT-5-73</v>
+        <v>53. 27 | 54. 27</v>
       </c>
       <c r="D22" t="str">
-        <v>89. CT-3-85 | 90. CT-5-85</v>
+        <v>73. 37 | 74. 37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>19. CT-3-50 | 20. CT-5-50</v>
+        <v>15. 8 | 16. 8</v>
       </c>
       <c r="B23" t="str">
-        <v>43. CT-3-62 | 44. CT-5-62</v>
+        <v>35. 18 | 36. 18</v>
       </c>
       <c r="C23" t="str">
-        <v>67. CT-3-74 | 68. CT-5-74</v>
+        <v>55. 28 | 56. 28</v>
       </c>
       <c r="D23" t="str">
-        <v>91. CT-3-86 | 92. CT-5-86</v>
+        <v>75. 38 | 76. 38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>21. CT-3-51 | 22. CT-5-51</v>
+        <v>17. 9 | 18. 9</v>
       </c>
       <c r="B24" t="str">
-        <v>45. CT-3-63 | 46. CT-5-63</v>
+        <v>37. 19 | 38. 19</v>
       </c>
       <c r="C24" t="str">
-        <v>69. CT-3-75 | 70. CT-5-75</v>
+        <v>57. 29 | 58. 29</v>
       </c>
       <c r="D24" t="str">
-        <v>93. CT-3-87 | 94. CT-5-87</v>
+        <v>77. 39 | 78. 39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>23. CT-3-52 | 24. CT-5-52</v>
+        <v>19. 10 | 20. 10</v>
       </c>
       <c r="B25" t="str">
-        <v>47. CT-3-64 | 48. CT-5-64</v>
+        <v>39. 20 | 40. 20</v>
       </c>
       <c r="C25" t="str">
-        <v>71. CT-3-76 | 72. CT-5-76</v>
+        <v>59. 30 | 60. 30</v>
       </c>
       <c r="D25" t="str">
-        <v xml:space="preserve"> | </v>
+        <v>79. 40 | 80. 40</v>
       </c>
     </row>
   </sheetData>
@@ -2003,1457 +3547,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D25"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Yeshwantrao Chavan College of Engineering</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Department of Computer Technology</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B5" t="str">
-        <v>06.11.2025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Room No.</v>
-      </c>
-      <c r="B6" t="str">
-        <v>EL-316</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Subject (Branch-Sem)</v>
-      </c>
-      <c r="B8" t="str">
-        <v>From</v>
-      </c>
-      <c r="C8" t="str">
-        <v>To</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>CAO (CSE(IOT) - 3)</v>
-      </c>
-      <c r="B9" t="str">
-        <v>CSE(IOT)-3-45</v>
-      </c>
-      <c r="C9" t="str">
-        <v>CSE(IOT)-3-90</v>
-      </c>
-      <c r="D9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>DAA (CT - 3)</v>
-      </c>
-      <c r="B10" t="str">
-        <v>CT-3-88</v>
-      </c>
-      <c r="C10" t="str">
-        <v>CT-3-105</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>DSA (CT - 5)</v>
-      </c>
-      <c r="B11" t="str">
-        <v>CT-5-88</v>
-      </c>
-      <c r="C11" t="str">
-        <v>CT-5-89</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>OS (CSE(IOT) - 5)</v>
-      </c>
-      <c r="B12" t="str">
-        <v>CSE(IOT)-5-45</v>
-      </c>
-      <c r="C12" t="str">
-        <v>CSE(IOT)-5-74</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B13" t="str">
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Column 1</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Column 2</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Column 3</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Column 4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>1. CSE(IOT)-3-45 | 2. CSE(IOT)-5-45</v>
-      </c>
-      <c r="B16" t="str">
-        <v>25. CSE(IOT)-3-57 | 26. CSE(IOT)-5-57</v>
-      </c>
-      <c r="C16" t="str">
-        <v>49. CSE(IOT)-3-69 | 50. CSE(IOT)-5-69</v>
-      </c>
-      <c r="D16" t="str">
-        <v>67. CSE(IOT)-3-81 | 83. CT-3-94</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>3. CSE(IOT)-3-46 | 4. CSE(IOT)-5-46</v>
-      </c>
-      <c r="B17" t="str">
-        <v>27. CSE(IOT)-3-58 | 28. CSE(IOT)-5-58</v>
-      </c>
-      <c r="C17" t="str">
-        <v>51. CSE(IOT)-3-70 | 52. CSE(IOT)-5-70</v>
-      </c>
-      <c r="D17" t="str">
-        <v>68. CSE(IOT)-3-82 | 84. CT-3-95</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>5. CSE(IOT)-3-47 | 6. CSE(IOT)-5-47</v>
-      </c>
-      <c r="B18" t="str">
-        <v>29. CSE(IOT)-3-59 | 30. CSE(IOT)-5-59</v>
-      </c>
-      <c r="C18" t="str">
-        <v>53. CSE(IOT)-3-71 | 54. CSE(IOT)-5-71</v>
-      </c>
-      <c r="D18" t="str">
-        <v>69. CSE(IOT)-3-83 | 85. CT-3-96</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>7. CSE(IOT)-3-48 | 8. CSE(IOT)-5-48</v>
-      </c>
-      <c r="B19" t="str">
-        <v>31. CSE(IOT)-3-60 | 32. CSE(IOT)-5-60</v>
-      </c>
-      <c r="C19" t="str">
-        <v>55. CSE(IOT)-3-72 | 56. CSE(IOT)-5-72</v>
-      </c>
-      <c r="D19" t="str">
-        <v>70. CSE(IOT)-3-84 | 86. CT-3-97</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>9. CSE(IOT)-3-49 | 10. CSE(IOT)-5-49</v>
-      </c>
-      <c r="B20" t="str">
-        <v>33. CSE(IOT)-3-61 | 34. CSE(IOT)-5-61</v>
-      </c>
-      <c r="C20" t="str">
-        <v>57. CSE(IOT)-3-73 | 58. CSE(IOT)-5-73</v>
-      </c>
-      <c r="D20" t="str">
-        <v>71. CSE(IOT)-3-85 | 87. CT-3-98</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>11. CSE(IOT)-3-50 | 12. CSE(IOT)-5-50</v>
-      </c>
-      <c r="B21" t="str">
-        <v>35. CSE(IOT)-3-62 | 36. CSE(IOT)-5-62</v>
-      </c>
-      <c r="C21" t="str">
-        <v>59. CSE(IOT)-3-74 | 60. CSE(IOT)-5-74</v>
-      </c>
-      <c r="D21" t="str">
-        <v>72. CSE(IOT)-3-86 | 88. CT-3-99</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>13. CSE(IOT)-3-51 | 14. CSE(IOT)-5-51</v>
-      </c>
-      <c r="B22" t="str">
-        <v>37. CSE(IOT)-3-63 | 38. CSE(IOT)-5-63</v>
-      </c>
-      <c r="C22" t="str">
-        <v>61. CSE(IOT)-3-75 | 77. CT-3-88</v>
-      </c>
-      <c r="D22" t="str">
-        <v>73. CSE(IOT)-3-87 | 89. CT-3-100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>15. CSE(IOT)-3-52 | 16. CSE(IOT)-5-52</v>
-      </c>
-      <c r="B23" t="str">
-        <v>39. CSE(IOT)-3-64 | 40. CSE(IOT)-5-64</v>
-      </c>
-      <c r="C23" t="str">
-        <v>62. CSE(IOT)-3-76 | 78. CT-3-89</v>
-      </c>
-      <c r="D23" t="str">
-        <v>74. CSE(IOT)-3-88 | 90. CT-3-101</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>17. CSE(IOT)-3-53 | 18. CSE(IOT)-5-53</v>
-      </c>
-      <c r="B24" t="str">
-        <v>41. CSE(IOT)-3-65 | 42. CSE(IOT)-5-65</v>
-      </c>
-      <c r="C24" t="str">
-        <v>63. CSE(IOT)-3-77 | 79. CT-3-90</v>
-      </c>
-      <c r="D24" t="str">
-        <v>75. CSE(IOT)-3-89 | 91. CT-3-102</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>19. CSE(IOT)-3-54 | 20. CSE(IOT)-5-54</v>
-      </c>
-      <c r="B25" t="str">
-        <v>43. CSE(IOT)-3-66 | 44. CSE(IOT)-5-66</v>
-      </c>
-      <c r="C25" t="str">
-        <v>64. CSE(IOT)-3-78 | 80. CT-3-91</v>
-      </c>
-      <c r="D25" t="str">
-        <v>76. CSE(IOT)-3-90 | 92. CT-3-103</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>21. CSE(IOT)-3-55 | 22. CSE(IOT)-5-55</v>
-      </c>
-      <c r="B26" t="str">
-        <v>45. CSE(IOT)-3-67 | 46. CSE(IOT)-5-67</v>
-      </c>
-      <c r="C26" t="str">
-        <v>65. CSE(IOT)-3-79 | 81. CT-3-92</v>
-      </c>
-      <c r="D26" t="str">
-        <v>93. CT-3-104 | 94. CT-5-88</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>23. CSE(IOT)-3-56 | 24. CSE(IOT)-5-56</v>
-      </c>
-      <c r="B27" t="str">
-        <v>47. CSE(IOT)-3-68 | 48. CSE(IOT)-5-68</v>
-      </c>
-      <c r="C27" t="str">
-        <v>66. CSE(IOT)-3-80 | 82. CT-3-93</v>
-      </c>
-      <c r="D27" t="str">
-        <v>95. CT-3-105 | 96. CT-5-89</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D27"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Yeshwantrao Chavan College of Engineering</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Department of Computer Technology</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B5" t="str">
-        <v>06.11.2025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Room No.</v>
-      </c>
-      <c r="B6" t="str">
-        <v>EL-203</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Subject (Branch-Sem)</v>
-      </c>
-      <c r="B8" t="str">
-        <v>From</v>
-      </c>
-      <c r="C8" t="str">
-        <v>To</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>AI (AIDS - 3)</v>
-      </c>
-      <c r="B9" t="str">
-        <v>AIDS-3-1</v>
-      </c>
-      <c r="C9" t="str">
-        <v>AIDS-3-34</v>
-      </c>
-      <c r="D9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>ML (AIDS - 5)</v>
-      </c>
-      <c r="B10" t="str">
-        <v>AIDS-5-1</v>
-      </c>
-      <c r="C10" t="str">
-        <v>AIDS-5-34</v>
-      </c>
-      <c r="D10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B11" t="str">
-        <v/>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Column 1</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Column 2</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Column 3</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Column 4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>1. AIDS-3-1 | 2. AIDS-5-1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>19. AIDS-3-10 | 20. AIDS-5-10</v>
-      </c>
-      <c r="C14" t="str">
-        <v>37. AIDS-3-19 | 38. AIDS-5-19</v>
-      </c>
-      <c r="D14" t="str">
-        <v>53. AIDS-3-27 | 54. AIDS-5-27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>3. AIDS-3-2 | 4. AIDS-5-2</v>
-      </c>
-      <c r="B15" t="str">
-        <v>21. AIDS-3-11 | 22. AIDS-5-11</v>
-      </c>
-      <c r="C15" t="str">
-        <v>39. AIDS-3-20 | 40. AIDS-5-20</v>
-      </c>
-      <c r="D15" t="str">
-        <v>55. AIDS-3-28 | 56. AIDS-5-28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>5. AIDS-3-3 | 6. AIDS-5-3</v>
-      </c>
-      <c r="B16" t="str">
-        <v>23. AIDS-3-12 | 24. AIDS-5-12</v>
-      </c>
-      <c r="C16" t="str">
-        <v>41. AIDS-3-21 | 42. AIDS-5-21</v>
-      </c>
-      <c r="D16" t="str">
-        <v>57. AIDS-3-29 | 58. AIDS-5-29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>7. AIDS-3-4 | 8. AIDS-5-4</v>
-      </c>
-      <c r="B17" t="str">
-        <v>25. AIDS-3-13 | 26. AIDS-5-13</v>
-      </c>
-      <c r="C17" t="str">
-        <v>43. AIDS-3-22 | 44. AIDS-5-22</v>
-      </c>
-      <c r="D17" t="str">
-        <v>59. AIDS-3-30 | 60. AIDS-5-30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>9. AIDS-3-5 | 10. AIDS-5-5</v>
-      </c>
-      <c r="B18" t="str">
-        <v>27. AIDS-3-14 | 28. AIDS-5-14</v>
-      </c>
-      <c r="C18" t="str">
-        <v>45. AIDS-3-23 | 46. AIDS-5-23</v>
-      </c>
-      <c r="D18" t="str">
-        <v>61. AIDS-3-31 | 62. AIDS-5-31</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>11. AIDS-3-6 | 12. AIDS-5-6</v>
-      </c>
-      <c r="B19" t="str">
-        <v>29. AIDS-3-15 | 30. AIDS-5-15</v>
-      </c>
-      <c r="C19" t="str">
-        <v>47. AIDS-3-24 | 48. AIDS-5-24</v>
-      </c>
-      <c r="D19" t="str">
-        <v>63. AIDS-3-32 | 64. AIDS-5-32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>13. AIDS-3-7 | 14. AIDS-5-7</v>
-      </c>
-      <c r="B20" t="str">
-        <v>31. AIDS-3-16 | 32. AIDS-5-16</v>
-      </c>
-      <c r="C20" t="str">
-        <v>49. AIDS-3-25 | 50. AIDS-5-25</v>
-      </c>
-      <c r="D20" t="str">
-        <v>65. AIDS-3-33 | 66. AIDS-5-33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>15. AIDS-3-8 | 16. AIDS-5-8</v>
-      </c>
-      <c r="B21" t="str">
-        <v>33. AIDS-3-17 | 34. AIDS-5-17</v>
-      </c>
-      <c r="C21" t="str">
-        <v>51. AIDS-3-26 | 52. AIDS-5-26</v>
-      </c>
-      <c r="D21" t="str">
-        <v>67. AIDS-3-34 | 68. AIDS-5-34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>17. AIDS-3-9 | 18. AIDS-5-9</v>
-      </c>
-      <c r="B22" t="str">
-        <v>35. AIDS-3-18 | 36. AIDS-5-18</v>
-      </c>
-      <c r="C22" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="D22" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Yeshwantrao Chavan College of Engineering</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Department of Computer Technology</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B5" t="str">
-        <v>06.11.2025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Room No.</v>
-      </c>
-      <c r="B6" t="str">
-        <v>EL-205</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Subject (Branch-Sem)</v>
-      </c>
-      <c r="B8" t="str">
-        <v>From</v>
-      </c>
-      <c r="C8" t="str">
-        <v>To</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>AI (AIDS - 3)</v>
-      </c>
-      <c r="B9" t="str">
-        <v>AIDS-3-78</v>
-      </c>
-      <c r="C9" t="str">
-        <v>AIDS-3-102</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>DAA (CT - 3)</v>
-      </c>
-      <c r="B10" t="str">
-        <v>CT-3-106</v>
-      </c>
-      <c r="C10" t="str">
-        <v>CT-3-112</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>ML (AIDS - 5)</v>
-      </c>
-      <c r="B11" t="str">
-        <v>AIDS-5-78</v>
-      </c>
-      <c r="C11" t="str">
-        <v>AIDS-5-83</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B12" t="str">
-        <v/>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Column 1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Column 2</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Column 3</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Column 4</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Column 5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>1. AIDS-3-78 | 2. AIDS-5-78</v>
-      </c>
-      <c r="B15" t="str">
-        <v>17. AIDS-3-88 | 36. CT-3-110</v>
-      </c>
-      <c r="C15" t="str">
-        <v xml:space="preserve">27. AIDS-3-98 | </v>
-      </c>
-      <c r="D15" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E15" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>3. AIDS-3-79 | 4. AIDS-5-79</v>
-      </c>
-      <c r="B16" t="str">
-        <v>18. AIDS-3-89 | 37. CT-3-111</v>
-      </c>
-      <c r="C16" t="str">
-        <v xml:space="preserve">28. AIDS-3-99 | </v>
-      </c>
-      <c r="D16" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E16" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>5. AIDS-3-80 | 6. AIDS-5-80</v>
-      </c>
-      <c r="B17" t="str">
-        <v>19. AIDS-3-90 | 38. CT-3-112</v>
-      </c>
-      <c r="C17" t="str">
-        <v xml:space="preserve">29. AIDS-3-100 | </v>
-      </c>
-      <c r="D17" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E17" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>7. AIDS-3-81 | 8. AIDS-5-81</v>
-      </c>
-      <c r="B18" t="str">
-        <v xml:space="preserve">20. AIDS-3-91 | </v>
-      </c>
-      <c r="C18" t="str">
-        <v xml:space="preserve">30. AIDS-3-101 | </v>
-      </c>
-      <c r="D18" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E18" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>9. AIDS-3-82 | 10. AIDS-5-82</v>
-      </c>
-      <c r="B19" t="str">
-        <v xml:space="preserve">21. AIDS-3-92 | </v>
-      </c>
-      <c r="C19" t="str">
-        <v xml:space="preserve">31. AIDS-3-102 | </v>
-      </c>
-      <c r="D19" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E19" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>11. AIDS-3-83 | 12. AIDS-5-83</v>
-      </c>
-      <c r="B20" t="str">
-        <v xml:space="preserve">22. AIDS-3-93 | </v>
-      </c>
-      <c r="C20" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="D20" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E20" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>13. AIDS-3-84 | 32. CT-3-106</v>
-      </c>
-      <c r="B21" t="str">
-        <v xml:space="preserve">23. AIDS-3-94 | </v>
-      </c>
-      <c r="C21" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="D21" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E21" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>14. AIDS-3-85 | 33. CT-3-107</v>
-      </c>
-      <c r="B22" t="str">
-        <v xml:space="preserve">24. AIDS-3-95 | </v>
-      </c>
-      <c r="C22" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="D22" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E22" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>15. AIDS-3-86 | 34. CT-3-108</v>
-      </c>
-      <c r="B23" t="str">
-        <v xml:space="preserve">25. AIDS-3-96 | </v>
-      </c>
-      <c r="C23" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="D23" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E23" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>16. AIDS-3-87 | 35. CT-3-109</v>
-      </c>
-      <c r="B24" t="str">
-        <v xml:space="preserve">26. AIDS-3-97 | </v>
-      </c>
-      <c r="C24" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="D24" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-      <c r="E24" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E24"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Yeshwantrao Chavan College of Engineering</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Department of Computer Technology</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B5" t="str">
-        <v>06.11.2025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Room No.</v>
-      </c>
-      <c r="B6" t="str">
-        <v>EL-308</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Subject (Branch-Sem)</v>
-      </c>
-      <c r="B8" t="str">
-        <v>From</v>
-      </c>
-      <c r="C8" t="str">
-        <v>To</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>AI (AIDS - 3)</v>
-      </c>
-      <c r="B9" t="str">
-        <v>AIDS-3-35</v>
-      </c>
-      <c r="C9" t="str">
-        <v>AIDS-3-77</v>
-      </c>
-      <c r="D9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>ML (AIDS - 5)</v>
-      </c>
-      <c r="B10" t="str">
-        <v>AIDS-5-35</v>
-      </c>
-      <c r="C10" t="str">
-        <v>AIDS-5-77</v>
-      </c>
-      <c r="D10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B11" t="str">
-        <v/>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Column 1</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Column 2</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Column 3</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Column 4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>1. AIDS-3-35 | 2. AIDS-5-35</v>
-      </c>
-      <c r="B14" t="str">
-        <v>23. AIDS-3-46 | 24. AIDS-5-46</v>
-      </c>
-      <c r="C14" t="str">
-        <v>45. AIDS-3-57 | 46. AIDS-5-57</v>
-      </c>
-      <c r="D14" t="str">
-        <v>67. AIDS-3-68 | 68. AIDS-5-68</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>3. AIDS-3-36 | 4. AIDS-5-36</v>
-      </c>
-      <c r="B15" t="str">
-        <v>25. AIDS-3-47 | 26. AIDS-5-47</v>
-      </c>
-      <c r="C15" t="str">
-        <v>47. AIDS-3-58 | 48. AIDS-5-58</v>
-      </c>
-      <c r="D15" t="str">
-        <v>69. AIDS-3-69 | 70. AIDS-5-69</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>5. AIDS-3-37 | 6. AIDS-5-37</v>
-      </c>
-      <c r="B16" t="str">
-        <v>27. AIDS-3-48 | 28. AIDS-5-48</v>
-      </c>
-      <c r="C16" t="str">
-        <v>49. AIDS-3-59 | 50. AIDS-5-59</v>
-      </c>
-      <c r="D16" t="str">
-        <v>71. AIDS-3-70 | 72. AIDS-5-70</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>7. AIDS-3-38 | 8. AIDS-5-38</v>
-      </c>
-      <c r="B17" t="str">
-        <v>29. AIDS-3-49 | 30. AIDS-5-49</v>
-      </c>
-      <c r="C17" t="str">
-        <v>51. AIDS-3-60 | 52. AIDS-5-60</v>
-      </c>
-      <c r="D17" t="str">
-        <v>73. AIDS-3-71 | 74. AIDS-5-71</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>9. AIDS-3-39 | 10. AIDS-5-39</v>
-      </c>
-      <c r="B18" t="str">
-        <v>31. AIDS-3-50 | 32. AIDS-5-50</v>
-      </c>
-      <c r="C18" t="str">
-        <v>53. AIDS-3-61 | 54. AIDS-5-61</v>
-      </c>
-      <c r="D18" t="str">
-        <v>75. AIDS-3-72 | 76. AIDS-5-72</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>11. AIDS-3-40 | 12. AIDS-5-40</v>
-      </c>
-      <c r="B19" t="str">
-        <v>33. AIDS-3-51 | 34. AIDS-5-51</v>
-      </c>
-      <c r="C19" t="str">
-        <v>55. AIDS-3-62 | 56. AIDS-5-62</v>
-      </c>
-      <c r="D19" t="str">
-        <v>77. AIDS-3-73 | 78. AIDS-5-73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>13. AIDS-3-41 | 14. AIDS-5-41</v>
-      </c>
-      <c r="B20" t="str">
-        <v>35. AIDS-3-52 | 36. AIDS-5-52</v>
-      </c>
-      <c r="C20" t="str">
-        <v>57. AIDS-3-63 | 58. AIDS-5-63</v>
-      </c>
-      <c r="D20" t="str">
-        <v>79. AIDS-3-74 | 80. AIDS-5-74</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>15. AIDS-3-42 | 16. AIDS-5-42</v>
-      </c>
-      <c r="B21" t="str">
-        <v>37. AIDS-3-53 | 38. AIDS-5-53</v>
-      </c>
-      <c r="C21" t="str">
-        <v>59. AIDS-3-64 | 60. AIDS-5-64</v>
-      </c>
-      <c r="D21" t="str">
-        <v>81. AIDS-3-75 | 82. AIDS-5-75</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>17. AIDS-3-43 | 18. AIDS-5-43</v>
-      </c>
-      <c r="B22" t="str">
-        <v>39. AIDS-3-54 | 40. AIDS-5-54</v>
-      </c>
-      <c r="C22" t="str">
-        <v>61. AIDS-3-65 | 62. AIDS-5-65</v>
-      </c>
-      <c r="D22" t="str">
-        <v>83. AIDS-3-76 | 84. AIDS-5-76</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>19. AIDS-3-44 | 20. AIDS-5-44</v>
-      </c>
-      <c r="B23" t="str">
-        <v>41. AIDS-3-55 | 42. AIDS-5-55</v>
-      </c>
-      <c r="C23" t="str">
-        <v>63. AIDS-3-66 | 64. AIDS-5-66</v>
-      </c>
-      <c r="D23" t="str">
-        <v>85. AIDS-3-77 | 86. AIDS-5-77</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>21. AIDS-3-45 | 22. AIDS-5-45</v>
-      </c>
-      <c r="B24" t="str">
-        <v>43. AIDS-3-56 | 44. AIDS-5-56</v>
-      </c>
-      <c r="C24" t="str">
-        <v>65. AIDS-3-67 | 66. AIDS-5-67</v>
-      </c>
-      <c r="D24" t="str">
-        <v xml:space="preserve"> | </v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D24"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Yeshwantrao Chavan College of Engineering</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>(An Autonomous Institution under R.T.M. Nagpur University)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Department of Computer Technology</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Seating Arrangement for MSE 2 - ODD 2025-26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B5" t="str">
-        <v>06.11.2025</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Room No.</v>
-      </c>
-      <c r="B6" t="str">
-        <v>EL-202</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Subject (Branch-Sem)</v>
-      </c>
-      <c r="B8" t="str">
-        <v>From</v>
-      </c>
-      <c r="C8" t="str">
-        <v>To</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>DAA (CT - 3)</v>
-      </c>
-      <c r="B9" t="str">
-        <v>CT-3-1</v>
-      </c>
-      <c r="C9" t="str">
-        <v>CT-3-40</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>DSA (CT - 5)</v>
-      </c>
-      <c r="B10" t="str">
-        <v>CT-5-1</v>
-      </c>
-      <c r="C10" t="str">
-        <v>CT-5-40</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B11" t="str">
-        <v/>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Column 1</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Column 2</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Column 3</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Column 4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>1. CT-3-1 | 2. CT-5-1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>21. CT-3-11 | 22. CT-5-11</v>
-      </c>
-      <c r="C14" t="str">
-        <v>41. CT-3-21 | 42. CT-5-21</v>
-      </c>
-      <c r="D14" t="str">
-        <v>61. CT-3-31 | 62. CT-5-31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>3. CT-3-2 | 4. CT-5-2</v>
-      </c>
-      <c r="B15" t="str">
-        <v>23. CT-3-12 | 24. CT-5-12</v>
-      </c>
-      <c r="C15" t="str">
-        <v>43. CT-3-22 | 44. CT-5-22</v>
-      </c>
-      <c r="D15" t="str">
-        <v>63. CT-3-32 | 64. CT-5-32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>5. CT-3-3 | 6. CT-5-3</v>
-      </c>
-      <c r="B16" t="str">
-        <v>25. CT-3-13 | 26. CT-5-13</v>
-      </c>
-      <c r="C16" t="str">
-        <v>45. CT-3-23 | 46. CT-5-23</v>
-      </c>
-      <c r="D16" t="str">
-        <v>65. CT-3-33 | 66. CT-5-33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>7. CT-3-4 | 8. CT-5-4</v>
-      </c>
-      <c r="B17" t="str">
-        <v>27. CT-3-14 | 28. CT-5-14</v>
-      </c>
-      <c r="C17" t="str">
-        <v>47. CT-3-24 | 48. CT-5-24</v>
-      </c>
-      <c r="D17" t="str">
-        <v>67. CT-3-34 | 68. CT-5-34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>9. CT-3-5 | 10. CT-5-5</v>
-      </c>
-      <c r="B18" t="str">
-        <v>29. CT-3-15 | 30. CT-5-15</v>
-      </c>
-      <c r="C18" t="str">
-        <v>49. CT-3-25 | 50. CT-5-25</v>
-      </c>
-      <c r="D18" t="str">
-        <v>69. CT-3-35 | 70. CT-5-35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>11. CT-3-6 | 12. CT-5-6</v>
-      </c>
-      <c r="B19" t="str">
-        <v>31. CT-3-16 | 32. CT-5-16</v>
-      </c>
-      <c r="C19" t="str">
-        <v>51. CT-3-26 | 52. CT-5-26</v>
-      </c>
-      <c r="D19" t="str">
-        <v>71. CT-3-36 | 72. CT-5-36</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>13. CT-3-7 | 14. CT-5-7</v>
-      </c>
-      <c r="B20" t="str">
-        <v>33. CT-3-17 | 34. CT-5-17</v>
-      </c>
-      <c r="C20" t="str">
-        <v>53. CT-3-27 | 54. CT-5-27</v>
-      </c>
-      <c r="D20" t="str">
-        <v>73. CT-3-37 | 74. CT-5-37</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>15. CT-3-8 | 16. CT-5-8</v>
-      </c>
-      <c r="B21" t="str">
-        <v>35. CT-3-18 | 36. CT-5-18</v>
-      </c>
-      <c r="C21" t="str">
-        <v>55. CT-3-28 | 56. CT-5-28</v>
-      </c>
-      <c r="D21" t="str">
-        <v>75. CT-3-38 | 76. CT-5-38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>17. CT-3-9 | 18. CT-5-9</v>
-      </c>
-      <c r="B22" t="str">
-        <v>37. CT-3-19 | 38. CT-5-19</v>
-      </c>
-      <c r="C22" t="str">
-        <v>57. CT-3-29 | 58. CT-5-29</v>
-      </c>
-      <c r="D22" t="str">
-        <v>77. CT-3-39 | 78. CT-5-39</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>19. CT-3-10 | 20. CT-5-10</v>
-      </c>
-      <c r="B23" t="str">
-        <v>39. CT-3-20 | 40. CT-5-20</v>
-      </c>
-      <c r="C23" t="str">
-        <v>59. CT-3-30 | 60. CT-5-30</v>
-      </c>
-      <c r="D23" t="str">
-        <v>79. CT-3-40 | 80. CT-5-40</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D23"/>
-  </ignoredErrors>
-</worksheet>
 </file>